--- a/опт и Краснодар/2024/09,24/23,09,24 ПОКОМ КИ Сочи/дв 23,09,24 счрсч пок ки от филиала.xlsx
+++ b/опт и Краснодар/2024/09,24/23,09,24 ПОКОМ КИ Сочи/дв 23,09,24 счрсч пок ки от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\23,09,24 ПОКОМ КИ Сочи\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2024\09,24\23,09,24 ПОКОМ КИ Сочи\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BE12AD-9F26-4E1F-AC7A-F75A65C76B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D9299D-2148-407D-A39E-0192E5D85A0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2431,7 +2431,7 @@
       <c r="R16" s="18"/>
       <c r="S16" s="16"/>
       <c r="T16" s="16" t="e">
-        <f t="shared" ref="T7:T61" si="8">(F16+P16)/O16</f>
+        <f t="shared" ref="T16:T44" si="8">(F16+P16)/O16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U16" s="16" t="e">
@@ -2457,7 +2457,7 @@
         <v>45</v>
       </c>
       <c r="AB16" s="16">
-        <f t="shared" ref="AB6:AB37" si="9">ROUND(P16*G16,0)</f>
+        <f t="shared" ref="AB16:AB35" si="9">ROUND(P16*G16,0)</f>
         <v>0</v>
       </c>
       <c r="AC16" s="1"/>
@@ -2627,7 +2627,7 @@
         <v>50</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" ref="Q17:Q19" si="12">P18</f>
+        <f t="shared" ref="Q18:Q19" si="12">P18</f>
         <v>50</v>
       </c>
       <c r="R18" s="5">
@@ -4556,7 +4556,7 @@
         <v>285</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" ref="Q36:Q43" si="25">P37</f>
+        <f t="shared" ref="Q37:Q43" si="25">P37</f>
         <v>285</v>
       </c>
       <c r="R37" s="5">
@@ -5301,7 +5301,7 @@
         <v>47</v>
       </c>
       <c r="AB44" s="11">
-        <f t="shared" ref="AB38:AB69" si="26">ROUND(P44*G44,0)</f>
+        <f t="shared" ref="AB44:AB67" si="26">ROUND(P44*G44,0)</f>
         <v>0</v>
       </c>
       <c r="AC44" s="1"/>
@@ -7668,7 +7668,7 @@
       <c r="R67" s="13"/>
       <c r="S67" s="11"/>
       <c r="T67" s="11">
-        <f t="shared" ref="T62:T95" si="34">(F67+P67)/O67</f>
+        <f t="shared" ref="T67:T95" si="34">(F67+P67)/O67</f>
         <v>11.6</v>
       </c>
       <c r="U67" s="11">
@@ -8598,7 +8598,7 @@
         <v>45</v>
       </c>
       <c r="AB76" s="16">
-        <f t="shared" ref="AB70:AB96" si="38">ROUND(P76*G76,0)</f>
+        <f t="shared" ref="AB76:AB80" si="38">ROUND(P76*G76,0)</f>
         <v>0</v>
       </c>
       <c r="AC76" s="1"/>
